--- a/Document/Plan/OPMS_Plan Tracking.xlsx
+++ b/Document/Plan/OPMS_Plan Tracking.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
   <si>
     <t xml:space="preserve">NO. </t>
   </si>
@@ -235,6 +235,33 @@
   </si>
   <si>
     <t>D:Total Plan</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Seft review</t>
+  </si>
+  <si>
+    <t>Peer review</t>
+  </si>
+  <si>
+    <t>3/18</t>
+  </si>
+  <si>
+    <t>0/15</t>
+  </si>
+  <si>
+    <t>4/18</t>
+  </si>
+  <si>
+    <t>0/14</t>
+  </si>
+  <si>
+    <t>5/18</t>
+  </si>
+  <si>
+    <t>0/13</t>
   </si>
 </sst>
 </file>
@@ -276,15 +303,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -293,6 +320,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,12 +616,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ71"/>
+  <dimension ref="A1:AL71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="840" activePane="bottomLeft"/>
-      <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection activeCell="E2" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -600,14 +629,16 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="20" width="3.85546875" customWidth="1"/>
-    <col min="21" max="23" width="4.140625" customWidth="1"/>
-    <col min="24" max="24" width="4.42578125" customWidth="1"/>
-    <col min="25" max="32" width="4.140625" customWidth="1"/>
-    <col min="33" max="42" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="22" width="3.85546875" customWidth="1"/>
+    <col min="23" max="25" width="4.140625" customWidth="1"/>
+    <col min="26" max="26" width="4.42578125" customWidth="1"/>
+    <col min="27" max="34" width="4.140625" customWidth="1"/>
+    <col min="35" max="44" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,140 +651,149 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="4">
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="4">
         <v>40974</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
       <c r="X1" s="5"/>
-      <c r="Y1" s="3">
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="2">
         <v>41035</v>
       </c>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3">
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2">
         <v>41096</v>
       </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+    </row>
+    <row r="2" spans="1:38">
       <c r="E2" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>5</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
         <v>4</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>5</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" t="s">
         <v>4</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>5</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:38">
       <c r="A3">
         <v>1</v>
       </c>
@@ -761,7 +801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:38">
       <c r="A4">
         <v>2</v>
       </c>
@@ -772,76 +812,94 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:38">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="E5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="E6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
+      <c r="E7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8">
         <v>6</v>
       </c>
@@ -852,7 +910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:38">
       <c r="A9">
         <v>7</v>
       </c>
@@ -862,20 +920,20 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0</v>
-      </c>
-      <c r="J9">
-        <v>27</v>
-      </c>
-      <c r="K9">
-        <v>27</v>
       </c>
       <c r="L9">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="M9">
+        <v>27</v>
+      </c>
+      <c r="N9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10">
         <v>8</v>
       </c>
@@ -888,48 +946,48 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="J10">
+      <c r="E10" s="7"/>
+      <c r="L10">
         <v>50</v>
       </c>
-      <c r="K10">
-        <f>G10+I10</f>
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
+        <v>18</v>
+      </c>
+      <c r="N10">
         <v>400</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>250</v>
       </c>
-      <c r="O10">
-        <f>K10+M10</f>
-        <v>0</v>
-      </c>
-      <c r="P10">
+      <c r="Q10">
+        <f>M10+O10</f>
+        <v>18</v>
+      </c>
+      <c r="R10">
         <v>400</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>300</v>
       </c>
-      <c r="S10">
-        <f>O10+Q10</f>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>400</v>
+      <c r="U10">
+        <f>Q10+S10</f>
+        <v>18</v>
       </c>
       <c r="V10">
         <v>400</v>
       </c>
-      <c r="W10">
-        <f>S10+U10</f>
-        <v>0</v>
-      </c>
       <c r="X10">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="Y10">
+        <f>U10+W10</f>
+        <v>18</v>
+      </c>
+      <c r="Z10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11">
         <v>9</v>
       </c>
@@ -939,118 +997,118 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="X11">
-        <f>SUM(X14:X64)</f>
+      <c r="Z11">
+        <f>SUM(Z14:Z64)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:38">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:38">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:36">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:38">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="X14">
+      <c r="C14" s="1"/>
+      <c r="Z14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:38">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:38">
       <c r="A16">
-        <f t="shared" ref="A5:A23" si="0">A15+1</f>
+        <f t="shared" ref="A16:A23" si="0">A15+1</f>
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:26">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:26">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:26">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:26">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1058,244 +1116,244 @@
       <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:26">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:26">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
-      <c r="C24" s="2" t="s">
+    <row r="24" spans="1:26">
+      <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
-      <c r="C25" s="2" t="s">
+    <row r="25" spans="1:26">
+      <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:26">
       <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:24">
-      <c r="C27" s="2" t="s">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
-      <c r="C28" s="2" t="s">
+    <row r="28" spans="1:26">
+      <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
-      <c r="C29" s="2" t="s">
+    <row r="29" spans="1:26">
+      <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
-      <c r="C30" s="2" t="s">
+    <row r="30" spans="1:26">
+      <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
-      <c r="C31" s="2" t="s">
+    <row r="31" spans="1:26">
+      <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
-      <c r="C32" s="2" t="s">
+    <row r="32" spans="1:26">
+      <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:24">
-      <c r="C33" s="2" t="s">
+    <row r="33" spans="2:26">
+      <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
       </c>
-      <c r="X33">
+      <c r="Z33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:24">
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:24">
+    <row r="34" spans="2:26">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:26">
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:24">
-      <c r="C36" s="2" t="s">
+    <row r="36" spans="2:26">
+      <c r="C36" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:24">
-      <c r="C37" s="2" t="s">
+    <row r="37" spans="2:26">
+      <c r="C37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:24">
-      <c r="C38" s="2" t="s">
+    <row r="38" spans="2:26">
+      <c r="C38" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:24">
-      <c r="C39" s="2" t="s">
+    <row r="39" spans="2:26">
+      <c r="C39" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:24">
-      <c r="C40" s="2" t="s">
+    <row r="40" spans="2:26">
+      <c r="C40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:24">
-      <c r="C41" s="2" t="s">
+    <row r="41" spans="2:26">
+      <c r="C41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:24">
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="2:24">
+    <row r="42" spans="2:26">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="2:26">
       <c r="B43" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="2:24">
-      <c r="C44" s="2" t="s">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="2:26">
+      <c r="C44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:24">
-      <c r="C45" s="2" t="s">
+    <row r="45" spans="2:26">
+      <c r="C45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:24">
-      <c r="C46" s="2"/>
+    <row r="46" spans="2:26">
+      <c r="C46" s="1"/>
       <c r="D46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:24">
+    <row r="47" spans="2:26">
       <c r="B47" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="1"/>
       <c r="D47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:24">
-      <c r="C48" s="2" t="s">
+    <row r="48" spans="2:26">
+      <c r="C48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D48" t="s">
@@ -1303,7 +1361,7 @@
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D49" t="s">
@@ -1311,7 +1369,7 @@
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D50" t="s">
@@ -1319,7 +1377,7 @@
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D51" t="s">
@@ -1327,7 +1385,7 @@
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D52" t="s">
@@ -1335,7 +1393,7 @@
       </c>
     </row>
     <row r="53" spans="2:4">
-      <c r="C53" s="2"/>
+      <c r="C53" s="1"/>
       <c r="D53" t="s">
         <v>18</v>
       </c>
@@ -1344,13 +1402,13 @@
       <c r="B54" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="1"/>
       <c r="D54" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D55" t="s">
@@ -1358,7 +1416,7 @@
       </c>
     </row>
     <row r="56" spans="2:4">
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D56" t="s">
@@ -1366,7 +1424,7 @@
       </c>
     </row>
     <row r="57" spans="2:4">
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D57" t="s">
@@ -1374,7 +1432,7 @@
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D58" t="s">
@@ -1382,7 +1440,7 @@
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="C59" s="2"/>
+      <c r="C59" s="1"/>
       <c r="D59" t="s">
         <v>18</v>
       </c>
@@ -1391,13 +1449,13 @@
       <c r="B60" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="1"/>
       <c r="D60" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D61" t="s">
@@ -1405,7 +1463,7 @@
       </c>
     </row>
     <row r="62" spans="2:4">
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D62" t="s">
@@ -1413,7 +1471,7 @@
       </c>
     </row>
     <row r="63" spans="2:4">
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D63" t="s">
@@ -1421,7 +1479,7 @@
       </c>
     </row>
     <row r="64" spans="2:4">
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D64" t="s">
@@ -1450,14 +1508,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/Plan/OPMS_Plan Tracking.xlsx
+++ b/Document/Plan/OPMS_Plan Tracking.xlsx
@@ -308,6 +308,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -320,8 +322,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,7 +621,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="840" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -654,52 +654,52 @@
       <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="4">
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="6">
         <v>40974</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="2">
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="4">
         <v>41035</v>
       </c>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2">
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4">
         <v>41096</v>
       </c>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
     </row>
     <row r="2" spans="1:38">
       <c r="E2" t="s">
@@ -822,10 +822,10 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>77</v>
       </c>
       <c r="K5">
@@ -851,10 +851,10 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>79</v>
       </c>
       <c r="K6">
@@ -880,10 +880,10 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="3" t="s">
         <v>81</v>
       </c>
       <c r="K7">
@@ -946,7 +946,7 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="3"/>
       <c r="L10">
         <v>50</v>
       </c>
@@ -956,12 +956,16 @@
       <c r="N10">
         <v>400</v>
       </c>
+      <c r="O10">
+        <f>39+35+5</f>
+        <v>79</v>
+      </c>
       <c r="P10">
         <v>250</v>
       </c>
       <c r="Q10">
         <f>M10+O10</f>
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="R10">
         <v>400</v>
@@ -971,7 +975,7 @@
       </c>
       <c r="U10">
         <f>Q10+S10</f>
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="V10">
         <v>400</v>
@@ -981,7 +985,7 @@
       </c>
       <c r="Y10">
         <f>U10+W10</f>
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="Z10">
         <v>400</v>

--- a/Document/Plan/OPMS_Plan Tracking.xlsx
+++ b/Document/Plan/OPMS_Plan Tracking.xlsx
@@ -618,10 +618,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
       <pane ySplit="840" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomLeft" activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -971,21 +971,19 @@
         <v>400</v>
       </c>
       <c r="T10">
-        <v>300</v>
-      </c>
-      <c r="U10">
-        <f>Q10+S10</f>
-        <v>97</v>
+        <f>15+5+2+2</f>
+        <v>24</v>
       </c>
       <c r="V10">
-        <v>400</v>
+        <f>18+18+45+38</f>
+        <v>119</v>
       </c>
       <c r="X10">
         <v>400</v>
       </c>
       <c r="Y10">
         <f>U10+W10</f>
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>400</v>

--- a/Document/Plan/OPMS_Plan Tracking.xlsx
+++ b/Document/Plan/OPMS_Plan Tracking.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
   <si>
     <t xml:space="preserve">NO. </t>
   </si>
@@ -249,26 +249,41 @@
     <t>3/18</t>
   </si>
   <si>
-    <t>0/15</t>
-  </si>
-  <si>
     <t>4/18</t>
   </si>
   <si>
-    <t>0/14</t>
-  </si>
-  <si>
     <t>5/18</t>
   </si>
   <si>
-    <t>0/13</t>
+    <t>15/15</t>
+  </si>
+  <si>
+    <t>14/14</t>
+  </si>
+  <si>
+    <t>13/13</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>6/5</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>70/200</t>
+  </si>
+  <si>
+    <t>180/200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +343,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -406,6 +426,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -440,6 +461,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,16 +637,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="840" activePane="bottomLeft"/>
       <selection activeCell="E2" sqref="E1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="V10" sqref="V10"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
@@ -638,7 +660,7 @@
     <col min="35" max="44" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +723,7 @@
       <c r="AK1" s="5"/>
       <c r="AL1" s="5"/>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>74</v>
       </c>
@@ -793,7 +815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -801,7 +823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -812,7 +834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -826,7 +848,7 @@
         <v>76</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -841,7 +863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -852,10 +874,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -870,7 +892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -881,7 +903,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>81</v>
@@ -899,7 +921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -909,8 +931,14 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="E8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -920,6 +948,12 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
       <c r="K9">
         <v>0</v>
       </c>
@@ -933,7 +967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -946,7 +980,12 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
       <c r="L10">
         <v>50</v>
       </c>
@@ -982,14 +1021,19 @@
         <v>400</v>
       </c>
       <c r="Y10">
-        <f>U10+W10</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="Z10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
+        <v>95</v>
+      </c>
+      <c r="AB10">
+        <v>95</v>
+      </c>
+      <c r="AD10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -998,13 +1042,19 @@
       </c>
       <c r="D11" t="s">
         <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
       </c>
       <c r="Z11">
         <f>SUM(Z14:Z64)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1017,14 +1067,20 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:38">
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1036,7 +1092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1050,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ref="A16:A23" si="0">A15+1</f>
         <v>14</v>
@@ -1065,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1080,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1095,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1110,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1120,7 +1176,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1132,7 +1188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1144,7 +1200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1156,7 +1212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1164,7 +1220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1172,13 +1228,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
@@ -1189,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1200,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
@@ -1211,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
@@ -1222,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1233,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
@@ -1244,7 +1300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:26">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
@@ -1255,10 +1311,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:26">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:26">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>44</v>
       </c>
@@ -1266,7 +1322,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:26">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>46</v>
       </c>
@@ -1274,7 +1330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:26">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>47</v>
       </c>
@@ -1282,7 +1338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:26">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>48</v>
       </c>
@@ -1290,7 +1346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:26">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>49</v>
       </c>
@@ -1298,7 +1354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:26">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1306,7 +1362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:26">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>50</v>
       </c>
@@ -1314,16 +1370,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:26">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:26">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:26">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>46</v>
       </c>
@@ -1331,7 +1387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:26">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>50</v>
       </c>
@@ -1339,13 +1395,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:26">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:26">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>52</v>
       </c>
@@ -1354,7 +1410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:26">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>53</v>
       </c>
@@ -1362,7 +1418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>54</v>
       </c>
@@ -1370,7 +1426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>55</v>
       </c>
@@ -1378,7 +1434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>56</v>
       </c>
@@ -1386,7 +1442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
         <v>39</v>
       </c>
@@ -1394,13 +1450,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>34</v>
       </c>
@@ -1409,7 +1465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
         <v>57</v>
       </c>
@@ -1417,7 +1473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>58</v>
       </c>
@@ -1425,7 +1481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
         <v>59</v>
       </c>
@@ -1433,7 +1489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>60</v>
       </c>
@@ -1441,13 +1497,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>61</v>
       </c>
@@ -1456,7 +1512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>62</v>
       </c>
@@ -1464,7 +1520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>63</v>
       </c>
@@ -1472,7 +1528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>64</v>
       </c>
@@ -1480,7 +1536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>65</v>
       </c>
@@ -1488,22 +1544,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1524,24 +1580,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
